--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\바탕 화면\23-1학기\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0182EF3C-5492-42CF-8B9A-680D5D16823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9EAB98-0561-4F3B-B94E-D74B82C08F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{155BBD2E-457B-48A8-97B8-A86808370E3E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>작업프로세스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,35 +128,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해체작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>넘어짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>떨어짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끼임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인양방법 불량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근로자 교육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고소작업대 작업 준수 여부 관리감독</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -592,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764085F3-D668-4E8B-9F70-FB2FB3037B6B}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -668,15 +644,15 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -685,131 +661,60 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="W2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3">
         <v>40</v>
       </c>
     </row>
